--- a/biology/Zoologie/Huabeisaurus/Huabeisaurus.xlsx
+++ b/biology/Zoologie/Huabeisaurus/Huabeisaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Huabeisaurus (signifiant « lézard du nord de la Chine) est un genre de dinosaure sauropode du Crétacé supérieur retrouvé dans des strates allant du Cénomanien au Campanien[1]. L'espèce-type, Huabeisaurus allocotus, a été décrite pour la première fois en 2000 par Pang Qiqing et Cheng Zhengwu[2].
-Huabeisaurus est constitué de plusieurs fossiles de dents, de membres et de vertèbres trouvés au cours des années 1990 à Houyu, Kangdailiang, Zhaojiagou et Xian de Tianzhen, dans la formation géologique Huiquanpu (en) de la province de Shanxi. Il est l'un des taxons de sauropodes asiatiques les plus détaillés[3].
-L'Huabeisaurus est estimé à 20 mètres de long et 5 mètres de haut par Pang et Cheng[2]. Ces derniers ont créé la famille  Huabeisauridae (en) à partir de ce genre[2].
+Huabeisaurus (signifiant « lézard du nord de la Chine) est un genre de dinosaure sauropode du Crétacé supérieur retrouvé dans des strates allant du Cénomanien au Campanien. L'espèce-type, Huabeisaurus allocotus, a été décrite pour la première fois en 2000 par Pang Qiqing et Cheng Zhengwu.
+Huabeisaurus est constitué de plusieurs fossiles de dents, de membres et de vertèbres trouvés au cours des années 1990 à Houyu, Kangdailiang, Zhaojiagou et Xian de Tianzhen, dans la formation géologique Huiquanpu (en) de la province de Shanxi. Il est l'un des taxons de sauropodes asiatiques les plus détaillés.
+L'Huabeisaurus est estimé à 20 mètres de long et 5 mètres de haut par Pang et Cheng. Ces derniers ont créé la famille  Huabeisauridae (en) à partir de ce genre.
 </t>
         </is>
       </c>
